--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value163.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value163.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.302952946830825</v>
+        <v>2.300649642944336</v>
       </c>
       <c r="B1">
-        <v>1.826285656785824</v>
+        <v>4.524884700775146</v>
       </c>
       <c r="C1">
-        <v>1.850931637872489</v>
+        <v>2.646209239959717</v>
       </c>
       <c r="D1">
-        <v>2.151955897115364</v>
+        <v>2.366683959960938</v>
       </c>
       <c r="E1">
-        <v>1.952078473583308</v>
+        <v>2.232384920120239</v>
       </c>
     </row>
   </sheetData>
